--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2917.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2917.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.316689729690552</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.865329742431641</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.692427158355713</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.921469688415527</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.144118905067444</v>
       </c>
     </row>
   </sheetData>
